--- a/Assets/StaticData/Excel/Npc.xlsx
+++ b/Assets/StaticData/Excel/Npc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Resources/Actor/NPC/Mona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speechRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000, 10001, 10002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,11 +484,13 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,10 +513,13 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -525,10 +542,13 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -547,11 +567,17 @@
       <c r="F3">
         <v>1000</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -570,11 +596,17 @@
       <c r="F4">
         <v>1000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -593,7 +625,13 @@
       <c r="F5">
         <v>1000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Assets/StaticData/Excel/Npc.xlsx
+++ b/Assets/StaticData/Excel/Npc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,47 +42,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이덴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPCType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stagePos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needQuestRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이덴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPCType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stagePos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Actor/NPC/Raiden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needQuestRef</t>
+    <t>앰버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speechRef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,43 +110,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>앰버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Actor/NPC/Amber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resources/Actor/NPC/Mona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speechRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10000, 10001, 10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/NPC/Raiden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/NPC/Amber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/NPC/Mona</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5, 0.0005, 0.74, 0, 235, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +480,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -485,7 +489,7 @@
     <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -501,22 +505,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
       <c r="H1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -527,25 +531,25 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -553,10 +557,10 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -567,14 +571,14 @@
       <c r="F3">
         <v>1000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -582,10 +586,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -596,14 +600,14 @@
       <c r="F4">
         <v>1000</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" t="s">
+        <v>28</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -611,10 +615,10 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -625,14 +629,14 @@
       <c r="F5">
         <v>1000</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" t="s">
+        <v>28</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StaticData/Excel/Npc.xlsx
+++ b/Assets/StaticData/Excel/Npc.xlsx
@@ -126,11 +126,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.5, 0.0005, 0.74, 0, 235, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0, 0, 0, 0, 0, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.846, 0, 0.297, 0, 240, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +480,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -572,7 +572,7 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -601,7 +601,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>0</v>

--- a/Assets/StaticData/Excel/Npc.xlsx
+++ b/Assets/StaticData/Excel/Npc.xlsx
@@ -7,58 +7,108 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NPC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>npcType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NPCType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라이덴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stageRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resourcePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>needQuestRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>questRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라이덴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPCType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stageRef</t>
+    <t>speechRef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000, 10001, 10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Actor/NPC/Mona</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,51 +116,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resourcePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>needQuestRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>앰버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speechRef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000, 10001, 10002</t>
+    <t>0, 0, 0, 0, 0, 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0, 0, 0, 0, 0 ,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,15 +132,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Actor/NPC/Mona</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, 0, 0, 0, 0, 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.846, 0, 0.297, 0, 240, 0</t>
+    <t>2.5, 0.005, 0.74, 0, 235, 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,8 +176,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -479,18 +482,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,57 +501,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -560,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -572,13 +574,13 @@
         <v>1000</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -586,10 +588,10 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -601,13 +603,13 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -615,10 +617,10 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -630,13 +632,13 @@
         <v>1000</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -644,30 +646,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>